--- a/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B63C46-453C-4501-9B93-423A91F8B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B3097C-CCED-4D14-B5E9-C5E99FD89DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D9EC91-AAA5-4737-AA59-D8024FA21424}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D66E348B-4F05-43E1-B018-DC57D92ACAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
@@ -104,445 +104,442 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>31,83%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>48,68%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>21,05%</t>
@@ -551,22 +548,25 @@
     <t>19,2%</t>
   </si>
   <si>
+    <t>22,62%</t>
+  </si>
+  <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9850EF-DD6D-4B62-AED9-8E5CC17CA81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC39E6F7-1114-41D8-AA0B-517EDFE09109}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1553,7 +1553,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,13 +1568,13 @@
         <v>543320</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>766</v>
@@ -1583,13 +1583,13 @@
         <v>528195</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>1243</v>
@@ -1598,13 +1598,13 @@
         <v>1071515</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1619,13 @@
         <v>213846</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -1634,13 +1634,13 @@
         <v>172196</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -1649,13 +1649,13 @@
         <v>386041</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1726,10 +1726,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>388</v>
@@ -1738,13 +1738,13 @@
         <v>278523</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>643</v>
@@ -1753,13 +1753,13 @@
         <v>545019</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1774,13 @@
         <v>324280</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -1789,13 +1789,13 @@
         <v>424920</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>723</v>
@@ -1804,13 +1804,13 @@
         <v>749200</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1825,13 @@
         <v>137037</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>224</v>
@@ -1840,13 +1840,13 @@
         <v>170145</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>355</v>
@@ -1855,13 +1855,13 @@
         <v>307182</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1929,13 +1929,13 @@
         <v>390343</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>690</v>
@@ -1944,13 +1944,13 @@
         <v>497189</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1089</v>
@@ -1959,13 +1959,13 @@
         <v>887532</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1980,13 @@
         <v>407265</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>574</v>
@@ -1995,13 +1995,13 @@
         <v>419336</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1014</v>
@@ -2010,13 +2010,13 @@
         <v>826600</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2031,13 @@
         <v>165637</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>298</v>
@@ -2046,13 +2046,13 @@
         <v>233907</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>462</v>
@@ -2061,13 +2061,13 @@
         <v>399544</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>1080767</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>2060</v>
@@ -2150,13 +2150,13 @@
         <v>1393012</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>3181</v>
@@ -2165,13 +2165,13 @@
         <v>2473778</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2186,13 @@
         <v>1586102</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>2330</v>
@@ -2201,13 +2201,13 @@
         <v>1695276</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>3898</v>
@@ -2216,13 +2216,13 @@
         <v>3281379</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2237,13 @@
         <v>711260</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>966</v>

--- a/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B3097C-CCED-4D14-B5E9-C5E99FD89DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E098E2EB-0BBF-47E6-AFCE-1E2051B069EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D66E348B-4F05-43E1-B018-DC57D92ACAB8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{693EBBA8-DB21-45A0-9039-3E4AA259646E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,508 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC39E6F7-1114-41D8-AA0B-517EDFE09109}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A60DCF-063C-4EFA-9B14-7CB20C2A303C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1099,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7">
-        <v>20997</v>
+        <v>139118</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>91</v>
+        <v>455</v>
       </c>
       <c r="I4" s="7">
-        <v>47446</v>
+        <v>243509</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1129,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>120</v>
+        <v>637</v>
       </c>
       <c r="N4" s="7">
-        <v>68444</v>
+        <v>382627</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1150,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="D5" s="7">
-        <v>32934</v>
+        <v>295975</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1165,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>556</v>
       </c>
       <c r="I5" s="7">
-        <v>50425</v>
+        <v>297921</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1180,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>142</v>
+        <v>918</v>
       </c>
       <c r="N5" s="7">
-        <v>83359</v>
+        <v>593895</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1201,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>46349</v>
+        <v>196436</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1216,10 +1129,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="I6" s="7">
-        <v>31680</v>
+        <v>130057</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1231,10 +1144,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>95</v>
+        <v>403</v>
       </c>
       <c r="N6" s="7">
-        <v>78029</v>
+        <v>326493</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1252,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>116</v>
+        <v>726</v>
       </c>
       <c r="D7" s="7">
-        <v>100280</v>
+        <v>631529</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1267,10 +1180,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>241</v>
+        <v>1232</v>
       </c>
       <c r="I7" s="7">
-        <v>129552</v>
+        <v>671487</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1282,10 +1195,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>357</v>
+        <v>1958</v>
       </c>
       <c r="N7" s="7">
-        <v>229832</v>
+        <v>1303015</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1305,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="D8" s="7">
-        <v>120848</v>
+        <v>282338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1320,10 +1233,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>364</v>
+        <v>527</v>
       </c>
       <c r="I8" s="7">
-        <v>210770</v>
+        <v>330499</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1335,10 +1248,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>517</v>
+        <v>812</v>
       </c>
       <c r="N8" s="7">
-        <v>331618</v>
+        <v>612838</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1356,10 +1269,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>319</v>
+        <v>477</v>
       </c>
       <c r="D9" s="7">
-        <v>278305</v>
+        <v>707787</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1371,10 +1284,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>457</v>
+        <v>766</v>
       </c>
       <c r="I9" s="7">
-        <v>272400</v>
+        <v>471416</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1386,10 +1299,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>776</v>
+        <v>1243</v>
       </c>
       <c r="N9" s="7">
-        <v>550704</v>
+        <v>1179204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1407,10 +1320,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>148391</v>
+        <v>202738</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1422,10 +1335,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="I10" s="7">
-        <v>106380</v>
+        <v>156191</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1437,10 +1350,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>308</v>
+        <v>425</v>
       </c>
       <c r="N10" s="7">
-        <v>254771</v>
+        <v>358930</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1458,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>610</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>547544</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1473,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>991</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>589550</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1488,10 +1401,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1601</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1137094</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1511,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D12" s="7">
-        <v>282083</v>
+        <v>256656</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1526,10 +1439,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>527</v>
+        <v>388</v>
       </c>
       <c r="I12" s="7">
-        <v>359083</v>
+        <v>259350</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1541,10 +1454,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>812</v>
+        <v>643</v>
       </c>
       <c r="N12" s="7">
-        <v>641166</v>
+        <v>516006</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1553,7 +1466,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1562,49 +1475,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="D13" s="7">
-        <v>543320</v>
+        <v>310571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>766</v>
+        <v>434</v>
       </c>
       <c r="I13" s="7">
-        <v>528195</v>
+        <v>492194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>1243</v>
+        <v>723</v>
       </c>
       <c r="N13" s="7">
-        <v>1071515</v>
+        <v>802765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,43 +1526,43 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>213846</v>
+        <v>136585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7">
+        <v>224</v>
+      </c>
+      <c r="I14" s="7">
+        <v>181103</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="7">
+        <v>355</v>
+      </c>
+      <c r="N14" s="7">
+        <v>317688</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="7">
-        <v>223</v>
-      </c>
-      <c r="I14" s="7">
-        <v>172196</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="7">
-        <v>425</v>
-      </c>
-      <c r="N14" s="7">
-        <v>386041</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>94</v>
@@ -1664,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>703813</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1679,10 +1592,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>932646</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1694,10 +1607,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1636459</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1717,49 +1630,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="D16" s="7">
-        <v>266496</v>
+        <v>388275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>388</v>
+        <v>690</v>
       </c>
       <c r="I16" s="7">
-        <v>278523</v>
+        <v>456073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>643</v>
+        <v>1089</v>
       </c>
       <c r="N16" s="7">
-        <v>545019</v>
+        <v>844348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,46 +1681,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="D17" s="7">
-        <v>324280</v>
+        <v>380561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>434</v>
+        <v>574</v>
       </c>
       <c r="I17" s="7">
-        <v>424920</v>
+        <v>373108</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>723</v>
+        <v>1014</v>
       </c>
       <c r="N17" s="7">
-        <v>749200</v>
+        <v>753669</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>113</v>
@@ -1819,49 +1732,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D18" s="7">
-        <v>137037</v>
+        <v>156020</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>298</v>
+      </c>
+      <c r="I18" s="7">
+        <v>265751</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="7">
-        <v>224</v>
-      </c>
-      <c r="I18" s="7">
-        <v>170145</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>462</v>
+      </c>
+      <c r="N18" s="7">
+        <v>421771</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="7">
-        <v>355</v>
-      </c>
-      <c r="N18" s="7">
-        <v>307182</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,10 +1783,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="7">
-        <v>727813</v>
+        <v>924856</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1885,10 +1798,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>1562</v>
       </c>
       <c r="I19" s="7">
-        <v>873587</v>
+        <v>1094932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1900,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N19" s="7">
-        <v>1601400</v>
+        <v>2019788</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1917,55 +1830,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>399</v>
+        <v>1121</v>
       </c>
       <c r="D20" s="7">
-        <v>390343</v>
+        <v>1066388</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>2060</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1289430</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>690</v>
-      </c>
-      <c r="I20" s="7">
-        <v>497189</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>3181</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2355818</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1089</v>
-      </c>
-      <c r="N20" s="7">
-        <v>887532</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,49 +1887,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>440</v>
+        <v>1568</v>
       </c>
       <c r="D21" s="7">
-        <v>407265</v>
+        <v>1694895</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2330</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1634639</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>574</v>
-      </c>
-      <c r="I21" s="7">
-        <v>419336</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>3898</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3329534</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1014</v>
-      </c>
-      <c r="N21" s="7">
-        <v>826600</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,49 +1938,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>164</v>
+        <v>679</v>
       </c>
       <c r="D22" s="7">
-        <v>165637</v>
+        <v>691780</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>966</v>
+      </c>
+      <c r="I22" s="7">
+        <v>733102</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>298</v>
-      </c>
-      <c r="I22" s="7">
-        <v>233907</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1424881</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>462</v>
-      </c>
-      <c r="N22" s="7">
-        <v>399544</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1003</v>
+        <v>3368</v>
       </c>
       <c r="D23" s="7">
-        <v>963245</v>
+        <v>3453062</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2091,10 +2004,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1562</v>
+        <v>5356</v>
       </c>
       <c r="I23" s="7">
-        <v>1150432</v>
+        <v>3657172</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2106,10 +2019,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2565</v>
+        <v>8724</v>
       </c>
       <c r="N23" s="7">
-        <v>2113676</v>
+        <v>7110233</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2122,222 +2035,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1121</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1080767</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2060</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1393012</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3181</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2473778</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1568</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1586102</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2330</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1695276</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3898</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3281379</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>679</v>
-      </c>
-      <c r="D26" s="7">
-        <v>711260</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>966</v>
-      </c>
-      <c r="I26" s="7">
-        <v>714308</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1645</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1425568</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3378129</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3802596</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7180725</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
